--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD9BE3-D343-4BA4-8EAD-08698D39AF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB9EBE-6FAD-47D4-A70D-D489DA359A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="productos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -295,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,7 +311,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +835,7 @@
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB9EBE-6FAD-47D4-A70D-D489DA359A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BCCBFE-4477-4CA0-B0FC-024634C95079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>image</t>
   </si>
@@ -213,6 +212,54 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>edward quevedo</t>
+  </si>
+  <si>
+    <t>Taladro Inalambrico</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>130.000</t>
+  </si>
+  <si>
+    <t>Taladro Inalámbrico 21 Voltios, Percutor Con 2 Baterías, Copas, Puntas Y Extensión</t>
+  </si>
+  <si>
+    <t>3224336215</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczObtmbU_tsVak1pMSlQuN4-4Onz8TKrQnKBd-dycgx41VHwpHSVWG2njJT7U9vEMJejJa1fdxxmZc7CAuM4pVHM37jFFDfRJchHoHvxUA3iQGsdSAIgmfdNFRoLJsJjMa-xkMW_15cmerYDk3qJjnt-5g=w475-h633-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -310,7 +357,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,13 +979,88 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
   </sheetData>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BCCBFE-4477-4CA0-B0FC-024634C95079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E7FA0-D2AD-47B2-9C9F-6CA1431CB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>image</t>
   </si>
@@ -260,6 +260,60 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczObtmbU_tsVak1pMSlQuN4-4Onz8TKrQnKBd-dycgx41VHwpHSVWG2njJT7U9vEMJejJa1fdxxmZc7CAuM4pVHM37jFFDfRJchHoHvxUA3iQGsdSAIgmfdNFRoLJsJjMa-xkMW_15cmerYDk3qJjnt-5g=w475-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Gimnasia Pasiva</t>
+  </si>
+  <si>
+    <t>Gimnasia Pasiva 8 Electrodos De Pila Y Conectar</t>
+  </si>
+  <si>
+    <t>3224336216</t>
+  </si>
+  <si>
+    <t>Cepillo Secador 3 En 1</t>
+  </si>
+  <si>
+    <t>Cepillo Secador 3 En 1, Cepilla, Seca, Alisa</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>3224336217</t>
+  </si>
+  <si>
+    <t>Combo Gamer</t>
+  </si>
+  <si>
+    <t>Combo Gamer Negro RGB Teclado Y Mouse</t>
+  </si>
+  <si>
+    <t>60.000</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP43uebQ4gDcWJLejZ7DTWX7sZ1Kve4EdQrf0dyDoz8BzIA7IsnM5TN7OgnN22XYm2PT-aUoxdHoaRZ2-00U0kqfhlR0StybFhWteZQGGkSdI0wgvSpFW-z2t1JsDtX7kG-cA8EwjoiI-gEDucMDlBo1A=w500-h309-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNyOyhYX-cmhTtPph9TaYAmzjNUy75kzfsl_jWyZkOGS0C6TTJBQkx06Yv_3EOMmDj4ULQMr4bSM7_pqkXA0QINGouykld9Mx_Zsl7JOg1ml9g98oquSmlvGknceIZkh7R0TOoBa3BE0CdMZ2unjkNBbg=w432-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNFTrSqJt6NsTEkkAtGM5vvJBbjHyai9N2pi42AVY88GnQ-gHyQKoT-iHh8y2TaQ8qlEaRpzYqYKKYaJIZBfb1kK18W2URs7xJ5_NrKYx7bKhZsN1ufh6oSjdFIKGpH2iFf5M6gYlqPYd0Tp3H-PdqF3g=w500-h489-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNDxVXm5qR802junRd2lyek41EuaONp19hqhF-CFq63rMIKmLkP025CNuWiJNgG6_2NTV8PuN-CO2df_Blvj2bNjNlnQn1fJLX-m4xEtq_Bc3vPmu0vtRUSawxRt-hxgV6lr5UFs10Uv9C8Ixt8ma4ibA=w500-h363-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMThvkBf7W_2DmcdJ0jzASx1GAhBztiFTBvJLHfKAoy2BpG_OoKs1l6RutqtzUR1AslF75pguaxp2eH7tFYlPZflsQXk88FU6o7dUCLuO4Ke1BzOW7t-NVe9t5I7CQj4tYv_CBuiu5ni_24BxQTOxOAug=w500-h428-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMFGpnhAYcuxekUHmsBMgL0NoSjeqF2TIBV6-rOwBHYmvl6pKbsd89tg8Nm6_TTvwBVSSETC1Kb5DODQHHIQnyjXt2N06ar8XQng1lftI0gy_97zK34Koem9FuO6UfAuX59BdtGCPftVmY7d0q862ibIg=w794-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN_YeDAx1aukAWLluS_995Z9heN-qKegOKTLNuPHJMEBQG-qqL7P4AaQtYt8OwUOXlPuRX1PvM1hiZnGCK3hJQkbedX-ycwIxj8mx5KRjVvYlwTFQ8RnVYrNChSOLxJ8bue909bF0WKzI2Skwf3LsstnA=w600-h600-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -666,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,20 +1066,100 @@
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E7FA0-D2AD-47B2-9C9F-6CA1431CB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03E3D3-693A-4891-9E23-E4A200F37600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03E3D3-693A-4891-9E23-E4A200F37600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1CE5E-1899-48B1-A6B3-3C4545EA1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
   <si>
     <t>image</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Gimnasia Pasiva 8 Electrodos De Pila Y Conectar</t>
   </si>
   <si>
-    <t>3224336216</t>
-  </si>
-  <si>
     <t>Cepillo Secador 3 En 1</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>45.000</t>
   </si>
   <si>
-    <t>3224336217</t>
-  </si>
-  <si>
     <t>Combo Gamer</t>
   </si>
   <si>
@@ -314,13 +308,216 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczN_YeDAx1aukAWLluS_995Z9heN-qKegOKTLNuPHJMEBQG-qqL7P4AaQtYt8OwUOXlPuRX1PvM1hiZnGCK3hJQkbedX-ycwIxj8mx5KRjVvYlwTFQ8RnVYrNChSOLxJ8bue909bF0WKzI2Skwf3LsstnA=w600-h600-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Equipo de ejercicio multifuncional: el ejercitador de kegel puede ejercitar completamente los músculos de la parte interna de los muslos, eliminar grasa en las piernas, tonificar los músculos de la parte inferior del disco y hacer que el glúteo sea más tonificado. Al mismo tiempo, es adecuado para practicar varios movimientos de diferentes partes. Es un equipo deportivo ideal.
+Diseño ergonómico: este entrenador de cadera está diseñado con un panel táctil ajustable de 360° para adaptarse mejor a la forma de la pierna y al ángulo de movimiento, su diseño de resorte con fuerte elasticidad y presión te permite ir en cualquier momento y en cualquier lugar. Puedes usarlo para mantenerte saludable.
+Material de alta calidad: el entrenador de cadera para mujer está hecho de material PP y TPE, que no solo es antideslizante, sino que también tiene un mejor tacto. El resorte integrado hace que sea elástico y duradero, y la estructura triangular hace que el muslo sea estable y no se deslice durante el ejercicio, y el efecto de ejercicio es más significativo.
+Fácil de usar: entrenador Kegel, 2-3 series de entrenamiento al día, insiste en hacer ejercicio durante 10 minutos por la mañana y por la noche, concéntrate en los músculos de los muslos, reduce la grasa del muslo, el uso a largo plazo puede mejorar la resistencia física
+Personas aplicables: el entrenador de muslos es adecuado para madres posparto, personas con glúteos planos y trabajo sedentario.
+Puede dar forma a la curva perfecta de glúteos sin hacer dieta, cambiar la postura sedentaria y embellecer la forma de la pierna. Es casi adecuado para cualquier persona que quiera hacer deporte. Las personas que hacen ejercicio o pierden peso, ya sea sentadas en una silla para trabajar o mirar televisión, pueden ejercitar los músculos de los muslos y lograr ejercicio fácil.</t>
+  </si>
+  <si>
+    <t>Ejercitador Pélvico</t>
+  </si>
+  <si>
+    <t>Estufa Eléctrica</t>
+  </si>
+  <si>
+    <t>Estufa Eléctrica 1 puesto Fogón Portátil con exterior de hierro reforzado y quemadores fabricados en acero inoxidable duradero. Cuenta con control de termostato y es fácil de limpiar. Ideal para calentar el carbón y tiene luz de funcionamiento.
+Características:
+Potencia: 1000w
+Voltaje nominal: 110V
+Frecuencia nominal: 50-60hz
+Peso: 597g
+Medidas: Alto 5cm Ancho 22cm Largo 22cm
+Contenido del paquete:
+1 Fogón eléctrico
+Este producto cuenta con termostato para ahorro de energía. Recuerda que la vida útil de tu producto depende directamente de su uso. Te recomendamos seguir todas las instrucciones que trae cada artículo al pie de la letra.</t>
+  </si>
+  <si>
+    <t>Molino de Aluminio</t>
+  </si>
+  <si>
+    <t>74.000</t>
+  </si>
+  <si>
+    <t>Características:
+1. Es adecuado para carne de cerdo picada, carne de res, cordero, pollo, especias, pimienta y salchichas.
+2. Estructura Simple y apariencia novedosa, un gran ayudante cuando haciendo salchicha y albóndigas.
+3. Fácil de operar, montar y limpiar, el rectificado es suave, seguro y confiable.
+4. Diseño ergonómico del mango de la manivela, mango súper largo, agarre cómodo, más ahorro de trabajo, muy fácil de usar.
+5. Adopta aleación de aluminio de alta calidad y material de acero inoxidable, no tóxico, resistente y duradero.
+6. La amplia apertura de la abrazadera permite montarla en casi cualquier mostrador o mesa.
+Especificaciones:
+– Condición 100% a estrenar
+– Tipo de artículo: PICADORA DE CARNE
+– Material: aleación de aluminio + acero inoxidable
+– Color: como se muestra en la imagen
+– Tamaño: aproximadamente 24x20cm/X pulgadas
+– Peso: aprox. 921g/32,5 oz
+– Aplicación: adecuado para carne de cerdo picada, carne de res, cordero, pollo, especias, pimienta y salchichas.
+Lista de paquetes:
+1 x Eje en espiral
+1 x Cuerpo de la máquina
+1 x Mango
+1 x Tuerca
+1 x Plato de carne
+1 x Cuchilla
+1 x Tornillo de mango
+1 x Manga del eje
+1 x Accesorio</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO2ASc3xNoPDl8hvysdTx1YK3mi-Zv-v8u2APUouDYodSm7SdHEJv0bksW0obwekPo_gt9_tsh5Ui0U79qv93jC6w9GlH6ktm9fsaWApc7ORk5LdTtPB_7ObidAeoUk1Du8zDZbgo5vIfb-_pMdZNh7UA=w658-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNYyXsfoNC4mA5G42-c_iLOm3vno-yXQh1rK8kEfad1XqufW5HTNGdqA1uTxbaA4HPi8l74bSziaVq2JvA7XZ9FZnJzELFdIcUDN4LVnuskLzLjXx9M6wG2pp3iQ9eTpWB5c5Siq3ixV7RkmUzkyNXqbQ=w644-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMy1Q9grHFB6azn_lDL16C8virUnoK1NRERyQTQz65iHVUYW8_thvTAcWEqShKSiZTt95Eraw3PRp_Jdtg4ILhgZjNHgR-zvvd8y2DZgZchMGK5c2jqS5h69jaAN8qKivi8djrPYEoRVGbonsS1aw9ZFQ=w643-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP3sPYzJs0TieJ8v1kSD50mYYweYKMwWszik8YzI1BNeufAAYAQb5uvtOVXkipxis_jaxTE7gg7_tx2Z4kz1AGQaKamPZEAK94s94TBrtKdzvb5Wzjxjb2D0aElUYzg4jL_IU8rslvDvfW723dtj5J4jg=w595-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO8-mDmxS1h626MhA92jpb0S658-gNb0YOKyIoGEpQj8bLcuIzg3Rl-ff9Undw3ppqsxKonSXbenhX5f7vOCjOFWfXMOEgIAm4ADqg1YyWl4N0iwJnWfk00e4NjE5g24hVngGbp-norJl4PrZJKqB0QXQ=w633-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO31gGEj5_zwP2WT9U31rDMxkaE13PuhjwapwzxvVelsbcenEtxpZmz6sMRUBPbC4A8FGdap_6nfyDrnvZEhSM-PuBDC0sri3XHRLlo8lE5KMvT49LqV9G5Ar2U6oziyBGTgQmg_isgZnMds4Nr0OO6XA=w637-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMJX-n-ppC9jgrsRgmF5yov5vXB8TubAeRzmVzoN3GFTWF1e4cdDElYRZT_jE6Xk7tPJ11xIKKCUF3PHCZExx0cNmTEieuIh5cKjCUkOhMwesKIFKTh5vgal7t9gi0_WisA3BO3nGZqbpGKZBubbirRgA=w464-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczORap2cghNw_A04efLOBD5y95nnpzqix2cxQiwAGG77Pmi0uMfe4-zg-9UcCiyOyCk9zRliDrLg-5OVNlQFhzo4R00A9rUFstktA2EBKkEY7MZpm8mSwxHGNWqO52Cqpdn1yhA4K_Dzl542vfCb57IJkA=w667-h633-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +543,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,10 +599,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,8 +620,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,13 +1275,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>81</v>
@@ -1082,22 +1290,22 @@
         <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1105,28 +1313,28 @@
         <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,68 +1342,737 @@
         <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1CE5E-1899-48B1-A6B3-3C4545EA1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA9653-FEA1-4F2A-9C9D-30E529FB7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>image</t>
   </si>
@@ -70,15 +70,9 @@
     <t xml:space="preserve">señora 2 </t>
   </si>
   <si>
-    <t>señora 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">señora 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">señora 4 </t>
-  </si>
-  <si>
     <t>señora 5</t>
   </si>
   <si>
@@ -238,16 +232,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>130.000</t>
@@ -367,126 +352,6 @@
 1 x Tornillo de mango
 1 x Manga del eje
 1 x Accesorio</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczO2ASc3xNoPDl8hvysdTx1YK3mi-Zv-v8u2APUouDYodSm7SdHEJv0bksW0obwekPo_gt9_tsh5Ui0U79qv93jC6w9GlH6ktm9fsaWApc7ORk5LdTtPB_7ObidAeoUk1Du8zDZbgo5vIfb-_pMdZNh7UA=w658-h633-s-no-gm?authuser=0</t>
@@ -926,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -965,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -985,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -1003,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,16 +876,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1029,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,25 +902,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>23456</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1063,16 +928,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1081,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1089,16 +954,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1107,7 +972,7 @@
         <v>23456</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,25 +980,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>5432</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,25 +1006,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>9876</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1167,16 +1032,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -1185,7 +1050,7 @@
         <v>56223</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1193,25 +1058,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1219,860 +1084,260 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA9653-FEA1-4F2A-9C9D-30E529FB7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB1880-B62E-455D-A494-D6F06363B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>image</t>
   </si>
@@ -376,6 +376,117 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczORap2cghNw_A04efLOBD5y95nnpzqix2cxQiwAGG77Pmi0uMfe4-zg-9UcCiyOyCk9zRliDrLg-5OVNlQFhzo4R00A9rUFstktA2EBKkEY7MZpm8mSwxHGNWqO52Cqpdn1yhA4K_Dzl542vfCb57IJkA=w667-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Carpa Campin (3 personas)</t>
+  </si>
+  <si>
+    <t>Carpa Iglú Dome Para 3 Personas.
+Características de la Carpa Iglú Dome Para 3 Personas:
+Material de poliéster resistente a los rayos del sol y a desgarros. Peso inferior a 2 kilos, facilitando el transporte en caminatas.
+Varillas de fibra de vidrio y piso de polietileno, proporcionando soporte y comodidad. Incluye bolso para almacenamiento y transporte.
+Alto: 95 cm
+Fondo: 200 cm
+Frente: 120 cm
+Material: Poliéster
+Material piso: Polietileno
+Material varillas: Fibra de vidrio
+Resistencia al agua: 450 mm
+Composición: 1 Dormitorio
+Capacidad: 4 personas
+Uso: Ideal para paseos y camping.</t>
+  </si>
+  <si>
+    <t>90.000</t>
+  </si>
+  <si>
+    <t>Maquina de coser mediana</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>Voltaje: 110V
+Rebobinado automático.
+Trabaja con 12 puntadas diferentes.
+Tipos de puntada: 12 patrones de puntadas básicos.
+Tiene enhebrador manual.
+Accesorios incluidos: 1 pedal. 1 bolsa de hilo. 1 adaptador dc 6v.
+Ideal para proyectos de corte y confección.</t>
+  </si>
+  <si>
+    <t>Cinta Luz Led Con Control RBG</t>
+  </si>
+  <si>
+    <t>43.500</t>
+  </si>
+  <si>
+    <t>Cinta led RGB
+Voltaje de funcionamiento 5V DC.
+Cambia de colores con el control de mano.
+Longitud 5 metros.
+Adhesivo en el dorso para su instalación sobre cualquier tipo de superficie.
+Bajo consumo de energía, super brillante.
+Esta cinta led puede ser utilizada en TV, monitores de ordenador, consolas, equipos de sonido, cocinas, coche, fincas, decorados de habitación, etc.
+(OJO no es rítmica).</t>
+  </si>
+  <si>
+    <t>Maquina profesional de Peluquería VGR 665</t>
+  </si>
+  <si>
+    <t>97.000</t>
+  </si>
+  <si>
+    <t>Diseño de apariencia de moda, riguroso control de ingeniería, calidad garantizada, para satisfacer sus necesidades profesionales.
+-Cuerpo aerodinámico
+Diseño ergonómico, antideslizante, cómodo de sostener, compacto y portátil.
+Nueva actualización, transparente y texturizada, con personalidad.
+-Silencioso y potente
+Procesamiento de reducción de ruido, motor potente de 8W, recorte más suave y silencioso.
+-Hoja de acero inoxidable
+Afilado y resistente al desgaste, no se oxida ni calienta fácilmente, ángulo obtuso en forma de R, diseño de corte de 30 , sin pegarse el cabello, sin daños en la piel.
+-Pantalla digital LED
+Monitoreo inteligente, pantalla digital de la potencia restante, manténgase al tanto del Estado de la energía.
+-Indicador de lubricación
+Para obtener los mejores resultados, Coloque unas gotas de aceite en los dientes de las cuchillas.
+-Indicador de carga
+El indicador rectangular parpadea, indica que la potencia de la batería es demasiado baja y necesitas recargar.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPm0dbIwB6N1fkzH1GOYmB2Vul5L0C_WtjuYPUGoK1lyYIRnWr9N5AGGXd1OD6ZLjzU6ShnxtKtKC-hIjHLaB2_4dQqDioKGUpgpuvpvX6c0lb6q5FYBJyN50p9Zxd5h2xh86-BewzXhsXUZY904ruMng=w633-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMavoMtc3WjLiIMjJzpYPaBpGERxBJXtr9AzbulnQIDnH9QGgC-ne9RSP7X_nJM9tt0dUhlw_EPRVrVaBw5dGDZI-j1liNgOEfnt2pjkGnK2ppDuAmfnHxaOAawWWB3IRXAh1pXjinH4JFzTboix3mHAw=w710-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOuTBTaOf_UKl7xmkVVmBGgBkhGOx-8zTCurHj4KVfO84CZrUr9zlCv1m5LCiPsk5oSCv3XQLHYrWMLQ8pyxJ35uhIoRJ-0gDs2DqsURpur8cQREnczPuFPmLspNH2fyeIyI4Qby6z5E4qbTlpsg8RBQw=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM2J_jvJwmXjcbDf04k4LnVV0JsMx0NOJ-6e07j_1v3OgOIbu2Gh3u8m6hXM5sFeldyPnHvP86oQqqt_29AL1frNv3pJ8h5ptZI5LsxQ_42UxGCMZBGHLJ8iNCBFMEEDLbRLrH2tZxpqF2C_7Y7c8Edpg=w424-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO-3bzW3c8QT2SIsRPARJH_UZqz7q1FRHnnvuL956iyMPczbn-8pgYOsq1oxpwNj0P8QZVh-ID3LfzoFe3aO3IkzRbDrS-pZsTRR3Tvqcj92f5s4ox-DMKycR2SAe0qykH9KeD_cMtnMyUw8crLNH8bTA=w500-h478-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMbwBGr5UdIZphocvvyUsLRWOU_stL8c-IToMuKuWoWeTSFei-94O8cuxTdj50jCY1xE-iHNNIeoDB56DrVL6KI3KCCRuuh7PUMmI6MRq5kCn47GEPZ1QhZ-4H30ipdsCvYzntGm0ojDbM9YFNveN185Q=w626-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNuSSgSUOaG-ylfAi-kKTBPKavs_z05lWhJCe7qhBZMHOmx3j8ma1I1TfZjymw2fHoxoDMd0yUTwH_EoUpAFLxSxNtJ3D1Vx9XWRP5fWzOB4ZbGk8zwFnHCpnzOx0EsqOj9lev2ZIZsi0o4p97ciLhgxg=w619-h633-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -791,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,8 +1447,199 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+    <row r="19" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB1880-B62E-455D-A494-D6F06363B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BCC343-B5AE-479A-8AC3-42AB779AE12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>image</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>tienda</t>
-  </si>
-  <si>
-    <t>señora 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">señora 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">señora 3 </t>
-  </si>
-  <si>
-    <t>señora 5</t>
   </si>
   <si>
     <t>oferta</t>
@@ -487,6 +475,27 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNuSSgSUOaG-ylfAi-kKTBPKavs_z05lWhJCe7qhBZMHOmx3j8ma1I1TfZjymw2fHoxoDMd0yUTwH_EoUpAFLxSxNtJ3D1Vx9XWRP5fWzOB4ZbGk8zwFnHCpnzOx0EsqOj9lev2ZIZsi0o4p97ciLhgxg=w619-h633-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>tienda1</t>
+  </si>
+  <si>
+    <t>tienda2</t>
+  </si>
+  <si>
+    <t>tienda3</t>
+  </si>
+  <si>
+    <t>tienda5</t>
+  </si>
+  <si>
+    <t>tienda7</t>
+  </si>
+  <si>
+    <t>tienda9</t>
+  </si>
+  <si>
+    <t>tienda10</t>
   </si>
 </sst>
 </file>
@@ -904,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -941,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -961,25 +970,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -987,25 +996,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1013,25 +1022,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1">
         <v>23456</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1039,25 +1048,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,25 +1074,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1">
         <v>23456</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,25 +1100,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1">
         <v>5432</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1117,25 +1126,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G8" s="1">
         <v>9876</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1143,25 +1152,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="G9" s="1">
         <v>56223</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,25 +1178,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1195,386 +1204,386 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1"/>
     </row>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BCC343-B5AE-479A-8AC3-42AB779AE12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564F81C-B1C3-4278-821A-4E705C138179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
   <si>
     <t>image</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>Carpa Campin (3 personas)</t>
@@ -911,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +979,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -1008,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -1034,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1">
         <v>23456</v>
@@ -1060,7 +1057,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -1086,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1">
         <v>23456</v>
@@ -1112,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1">
         <v>5432</v>
@@ -1138,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
         <v>9876</v>
@@ -1164,7 +1161,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1">
         <v>56223</v>
@@ -1190,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1216,7 +1213,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -1461,16 +1458,16 @@
         <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>59</v>
@@ -1482,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -1490,16 +1487,16 @@
         <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>59</v>
@@ -1511,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.25">
@@ -1519,16 +1516,16 @@
         <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>59</v>
@@ -1540,13 +1537,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -1554,16 +1551,16 @@
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -1575,16 +1572,13 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,9 +1640,6 @@
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564F81C-B1C3-4278-821A-4E705C138179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC2919-3710-4214-BCEC-5A87DF9442D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>image</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>tienda10</t>
+  </si>
+  <si>
+    <t>foto4</t>
+  </si>
+  <si>
+    <t>foto5</t>
+  </si>
+  <si>
+    <t>foto6</t>
+  </si>
+  <si>
+    <t>foto7</t>
+  </si>
+  <si>
+    <t>foto8</t>
   </si>
 </sst>
 </file>
@@ -908,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +939,7 @@
     <col min="6" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -961,8 +976,23 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -988,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1014,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1040,7 +1070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1066,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1092,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1118,7 +1148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1170,7 +1200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1196,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1223,7 +1253,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1319,7 +1349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1351,7 +1381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564F81C-B1C3-4278-821A-4E705C138179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F3C46-CEE9-4F80-A650-72E619DC6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>image</t>
   </si>
@@ -43,18 +43,6 @@
     <t>foto3</t>
   </si>
   <si>
-    <t>3118208920</t>
-  </si>
-  <si>
-    <t>3007111204</t>
-  </si>
-  <si>
-    <t>10943</t>
-  </si>
-  <si>
-    <t>059833</t>
-  </si>
-  <si>
     <t>foto0</t>
   </si>
   <si>
@@ -73,126 +61,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Hidrolavadora Electrica Trent Hlt203 1400w Alta Presion 1600 Psi 110 Bar Con Accesorios By Femmto</t>
-  </si>
-  <si>
-    <t>196.657</t>
-  </si>
-  <si>
-    <t>Bicicleta Roadmaster Hurricane Rin 29 Todoterreno Cambios Shimano Tourney 21 V Frenos De Disco Mecanico Suspension De Bloqueo Color Negro Gris Talla L</t>
-  </si>
-  <si>
-    <t>Bicicleta Roadmaster</t>
-  </si>
-  <si>
-    <t>Hidrolavadora Electrica Trent</t>
-  </si>
-  <si>
-    <t>611.300</t>
-  </si>
-  <si>
-    <t>Qcy H3 Anc Auriculares Bluetooth 5.4 Alta Resolución 43db</t>
-  </si>
-  <si>
-    <t>Qcy H3 Anc Auriculares Bluetooth</t>
-  </si>
-  <si>
-    <t>Reloj Cronógrafo De Cuarzo Fossil</t>
-  </si>
-  <si>
-    <t>Reloj Cronógrafo De Cuarzo Fossil Coachman Ch2891 Para Hombre</t>
-  </si>
-  <si>
-    <t>456.712</t>
-  </si>
-  <si>
-    <t>153.699</t>
-  </si>
-  <si>
-    <t>Balon Voleibol Molten V5m5000 Flistatec Original Blanco/Verde/Rojo</t>
-  </si>
-  <si>
-    <t>Balon Voleibol Molten</t>
-  </si>
-  <si>
-    <t>100.423</t>
-  </si>
-  <si>
-    <t>Audífonos Realme Buds Air 6 Pro 360° Sonido Espacial Negro</t>
-  </si>
-  <si>
-    <t>Audífonos Realme Buds</t>
-  </si>
-  <si>
-    <t>229.246</t>
-  </si>
-  <si>
-    <t>Secador De Pelo De Viaje De Cerámica Turmalina Conair Minipr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secador De Pelo De Viaje </t>
-  </si>
-  <si>
-    <t>216.300</t>
-  </si>
-  <si>
-    <t>Niños Callejeros Skzoo Stray Kids 8 Piezas Muñeco De Peluche</t>
-  </si>
-  <si>
-    <t>Niños Callejeros Skzoo</t>
-  </si>
-  <si>
-    <t>162.965</t>
-  </si>
-  <si>
-    <t>Terreneitoir Carro Control Remotos Todo Terreno 4x4</t>
-  </si>
-  <si>
-    <t>Terreneitoir Carro Contro</t>
-  </si>
-  <si>
-    <t>120.187</t>
-  </si>
-  <si>
-    <t>Juguete De Aleación Para Niños, Modelo De Tren Eléctrico</t>
-  </si>
-  <si>
-    <t>Tren Eléctrico</t>
-  </si>
-  <si>
-    <t>114.400</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOc6ws87UNQimxYIPvRqvHMWdPuOrDP_5fWt8M9JAXNeqkzCZOfHT5NwFKSqDEHgVO5XGXawOYGgCC7U27XBLa0SumAMwigCUdTfpubzwHKaQx8QuCTVE7hwH2WcayfEs0xYSByvxh8sYfJl0svcmoS=w333-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczP9uskp7ZCfNQ1_g7mUtj5z0kSAslk7rv0_rZwh6czAYUajbgcLCOK_s9s5RwsKoxdnqfXEXjTVdlFafZwyBraiEsKw2xl57SRkZn79wszFg3_jmTD40vnItUgVfa__XGFa0FU1nhcAHdIgiUqBd9A4=w500-h316-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMm6a8yNOt6rQ0d1mddVvCMYKbY0-XkA4rOGWFivgvznB0Rbfu2RlaAJcpELl09gA0nz_Jt6-KLw0FexhlPUqPpUdoNhhzldz2v2HO-9NIxdq2W2bkgDVvgOxgOci8FYa7Zdw9DWYtAu8BIJMzL5bAv=w379-h500-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOO9kNFA0WrRVTP0l38qxMEnACiK-tePPQTjVhmtzA8O-sik41H6wveWYtYXUC-zQ9nhHc0J_-RPKR9IwObhgZ_ouRqU7LUAMpdRVKFv6_mBRYvgioI_oQfb6a1nroQSGVJ83MTx770fuREzduMhji_=w325-h500-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOzBhWvwos6L7zIm0vJ_HD6G1k1jn_bVTuE6_MiQf9oEWbvgTz4DMt1EbZIXiDHghz4DcqbwGI6iTb-Xll2I49c0XXUrBskW83yoZUW7BbJvAxPcqt-gsco_6ZkpafZIJyULFQ57rxGICwJEqAraIQ5=w499-h500-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPLaYUDNoeDfubBi0-OMbtkcdVx9xkaJbLiud7Fm5qVxlZXrmvxyd1ZKQ9qbGKu52O7nDeYN9Kgq5UfZlQjRFvd1KJ0wnJTGiYlVvx5WOXyTtcEGGnrXStXi-zvBaYQaxAHqziJ9ffdd4brcfuSoNq2=w370-h500-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOhkqgQX3Ydo-Q8fIQVdbsVYk8zjAtqYlaZjMvXhRidg2kDGAntRwlTvUayGZM91EsJpvHGoMrIitQ7eUCKuGVn9bcyv9gphdoX1gXVWLZZ2wH5GUo8Zo_vFH6uhnAmZhyZ_fcM-tyVUe2LEv_T9jur=w330-h500-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMcA9LsV-XDcgiEXz1S-nhwnFJI8aLI0tVTGB0GlhSV_-ljRpPkEzADvUkLnt307Sp77mfOg6tcOWSRs5ENwqQXG-gO8w5Q7MSOtvDVM8T-LVCziNn_deVWj0S5s8NeOU9XSPX2x0W5EtoWkUkOONUE=w476-h491-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczN89qU1MSnGnjJKkilTWG9eB3LXPYKmg4XjqMjaJ5qFXjsIPYGhFqRhqb5ANVMGVfFWsooYhOjU-sizk2PWeVtGZWhuCMTED89hr1Zcpfn9cXwFeu1rj0t9_-5H_bHkFa-LMFylgXqP8rvla7kHpMGq=w500-h398-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPSme-Gve7iPH2MD8iin4WcXHcJcknA5iNEgCU8vZAo8OG8G5TZLn2cCnJwpYiU2z7iDgTKoXautQdWCCXwG9TT8sxneqG8RRtGHuhZ9-VKZ9XD8TL2641l38fmZ6cdThm2s3WKsTX8NCsI-UcgqD69=w500-h484-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -221,9 +89,6 @@
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>130.000</t>
   </si>
   <si>
     <t>Taladro Inalámbrico 21 Voltios, Percutor Con 2 Baterías, Copas, Puntas Y Extensión</t>
@@ -474,25 +339,300 @@
     <t>https://lh3.googleusercontent.com/pw/AP1GczNuSSgSUOaG-ylfAi-kKTBPKavs_z05lWhJCe7qhBZMHOmx3j8ma1I1TfZjymw2fHoxoDMd0yUTwH_EoUpAFLxSxNtJ3D1Vx9XWRP5fWzOB4ZbGk8zwFnHCpnzOx0EsqOj9lev2ZIZsi0o4p97ciLhgxg=w619-h633-s-no-gm?authuser=0</t>
   </si>
   <si>
-    <t>tienda1</t>
-  </si>
-  <si>
-    <t>tienda2</t>
-  </si>
-  <si>
-    <t>tienda3</t>
-  </si>
-  <si>
-    <t>tienda5</t>
-  </si>
-  <si>
-    <t>tienda7</t>
-  </si>
-  <si>
-    <t>tienda9</t>
-  </si>
-  <si>
-    <t>tienda10</t>
+    <t>foto4</t>
+  </si>
+  <si>
+    <t>foto5</t>
+  </si>
+  <si>
+    <t>foto6</t>
+  </si>
+  <si>
+    <t>foto7</t>
+  </si>
+  <si>
+    <t>foto8</t>
+  </si>
+  <si>
+    <t>Marcadores Doble Punta</t>
+  </si>
+  <si>
+    <t>Doble Punta: Cada marcador está equipado con dos puntas: una punta fina para trazos precisos y detalles delicados, y una punta biselada que permite una cobertura más amplia y la creación de trazos de grosor variable. Esta versatilidad te permite adaptarte a una amplia gama de estilos y técnicas de dibujo.
+Tintas a Base de Alcohol de Alta Calidad: Las tintas a base de alcohol garantizan una aplicación suave y uniforme, con colores intensos y duraderos. Estas tintas se secan rápidamente, lo que minimiza el riesgo de manchas y permite superponer capas de color sin emborronamientos.
+Amplia Gama de Colores: Con 60 marcadores en una variedad de tonalidades, incluyendo colores primarios, secundarios, pasteles y tonos de piel, este kit ofrece una paleta completa para expresar tu creatividad sin límites. Desde tonos sutiles hasta colores vibrantes, encontrarás todo lo que necesitas para dar vida a tus ideas.
+Diseño Ergonómico y Cómodo: Los marcadores tienen un diseño ergonómico que se adapta cómodamente a la mano, permitiéndote dibujar durante largos períodos sin fatiga. Los cuerpos de los marcadores son ligeros pero duraderos, con tapas a presión que aseguran un cierre hermético para mantener las puntas húmedas y evitar la evaporación de la tinta.
+Estuche de Almacenamiento: Este conjunto viene en un estuche organizador resistente que mantiene los marcadores ordenados y protegidos cuando no están en uso. Con compartimentos individuales para cada marcador, es fácil mantener tu colección organizada y transportarla de manera segura dondequiera que vayas.</t>
+  </si>
+  <si>
+    <t>62.000</t>
+  </si>
+  <si>
+    <t>53.500</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>127.000</t>
+  </si>
+  <si>
+    <t>Set de Arte (208) piezas</t>
+  </si>
+  <si>
+    <t>Dale a tu hijo el mejor regalo para que lleve su creatividad a niveles que no te imaginas!!
+Juego de arte de 208 piezas: el set de arte Buddy N Buddies de 208 piezas te da todas las herramientas que necesitas cuando y donde la inspiración golpea. Es un estudio portátil todo en uno con docenas de ceras, lápices, marcadores, pasteles de acuarela, y hojas de papel de dibujo que pueden mantenerte durante horas.
+Funda de transporte portátil: el juego de arte de caballete de doble cara de 208 piezas está equipado con un caballete desplegable integrado y de doble cara que dos niños pueden pintar cómodamente. Funda portátil y ligera que se puede llevar a cualquier lugar, también mantiene tus componentes organizados.
+Materiales de alta calidad que son aptos para niños. No tóxicos y sin olor, seguros para que los niños jueguen. Primero ponemos los mejores intereses de los niños.
+Un bloc de dibujo reversible para que dos niños lo utilicen simultáneamente.
+Juego creativo y educativo: este juego de arte es un juego de introducción perfecto para los niños que recién comenzaron a aprender a dibujar. Ayuda a los niños a expresar, crear y conectar a través de juegos coloridos.
+EL KIT DE ARTE INCLUYE:
+48 x Crayones pasteles oil
+36 x tubos acuarela
+30 x Clip de papel
+24 x lápices
+24 x lápices de color
+18 x tortas de acuarela
+1 juego x papel A4
+1 x pegamento líquido
+1 x goma de borrar
+1 x lápiz sacapuntas
+1 x dibujo lápiz
+1 x lápiz
+1 x paleta
+1 x pegamento blanco
+1 caballete de doble cara</t>
+  </si>
+  <si>
+    <t>Nebulizador Portatil Adultos Y Niños</t>
+  </si>
+  <si>
+    <t>95.000</t>
+  </si>
+  <si>
+    <t>Nebulizador de mano portatil, inhalador para asma, atomizador, Mini humidificador portátil, cuidado de la salud de los niños y adultos</t>
+  </si>
+  <si>
+    <t>Hidro Lavadora (Cleaning Gun)</t>
+  </si>
+  <si>
+    <t>145.000</t>
+  </si>
+  <si>
+    <t>Hidrolavadora Inalambrica – Potente y Compacta para Todo Uso
+-Diseñada para ofrecerte la máxima libertad, esta hidrolavadora te permite llegar a cualquier rincón sin preocuparte por la electricidad. —Con su potente batería recargable, tendrás la fuerza necesaria para eliminar la suciedad más difícil en coches, patios, muebles de jardín y más.
+-Esta hidrolavadora no solo te ofrece comodidad, sino también la eficiencia y el rendimiento que necesitas para mantener tus espacios limpios y relucientes. ¡Descubre la libertad de limpiar a tu manera y en tus términos con la Hidrolavadora Portátil Recargable!
+tener en cuenta:
+*Es una potente hidrollavadora de alta presión portátil que es perfecta para los trabajos de limpieza diarios más pesados; se caracteriza por su corto tiempo de carga, gran alcance y calidad constante.
+*La batería ha sido completamente mejorada. El nuevo modelo 48VF proporciona aún más potencia.
+Las ventajas
+1. Con el nuevo cargador rápido, una carga completa tarda poco más de 2 horas en lugar de 4 horas, lo que supone un tiempo de carga más corto.
+2. Batería de iones de litio mejoradas, cada una de las cuales ha demostrado durar entre 20 y 30 minutos. Con su batería, podemos lavar el coche durante un total de 40 a 50 minutos.
+3. hidrolavadoras:
+*Está equipada con un potente motor de alta calidad con una presión máxima de trabajo de 30 bares (435 psi), una presión máxima de entrada de 0,5 MPa y un caudal de 6 litros por minuto.
+*Con estas potentes características, puede presurizar el agua hasta una profundidad de 8 metros en menos de 5 segundos. Limpia rápidamente superficies exteriores del hogar, muebles de jardín, bicicletas, motos, coches, escaleras y la suciedad más resistente de la piscina.
+4.La manguera está hecha de material nuevo con buena absorción de agua, puede rebotar rápidamente después de doblarse, la manguera es flexible y no es fácil que se dañe o agriete.
+Accesorios Incluidos:
+1 * Lavacoches
+1 * Maletín de transporte
+1 * Batería de litio 48VF Modelo
+1 * Cargador
+1 * Boquilla 0
+1 * Boquilla 40
+1 * Filtro
+1 * Manguera de 5 metros
+1 * Conector de manguera
+1 * Depósito de espuma
+1 * Manual del usuario</t>
+  </si>
+  <si>
+    <t>Mini Consola Retro 620 Videojuegos Cable AV Para TV</t>
+  </si>
+  <si>
+    <t>77.000</t>
+  </si>
+  <si>
+    <t>620 juegos clásicos de colección en total, sin necesidad de colocar tarjetas, ni descargarlos.
+Diseño de tamaño perfecto, sensación cómoda del botón.
+Se puede conectar a la pantalla del Computador o Televisor a través de la interfaz AV.
+Algunos de los juegos que contiene: Super Mario, Contra, TMNT, Spiderman, 90 Tank, Bomberman, Circus Charlie, Donkey Kong, F1 Race, Galaga, Pacman, Pin ball, Soccer (Futbol).
+Cargador de 5v para conexión eléctrica
+Cable Av para conexión al TV
+Importante: Nuevo modelo 2020 Con los botones de los controles a color y de 400 Juegos.
+Voltaje: 110v
+2 Controles estilo Clasico (9 pines)
+Producto Nuevo 100% Garantizado.</t>
+  </si>
+  <si>
+    <t>Cojín Silicona Gel Flexible Descanso + Funda Protectora.</t>
+  </si>
+  <si>
+    <t>56.500</t>
+  </si>
+  <si>
+    <t>Cojín Diseñado en polímero se presenta en una columna de distribución uniforme que ofrece un soporte perfecto para la espalda y la columna vertebral sin colocar presión en las caderas, su diseño permite que la circulación del aire se mantenga fresca al tacto, Se adapta a la mayoría de las sillas para alivio de la presión silla de oficina asiento de coche asiento reclinable todos pueden útil, Diseñado ergonómicamente para apoyar y liberar presión en la cadera, Hemos incluido una funda suave lavable a máquina cuando se necesita para limpiar se lava en la lavadoraMedidas: 37 cm Largo x 31 cm Ancho x 3cm Grosor aprox.</t>
+  </si>
+  <si>
+    <t>Diadema Gamer G9000 Audifono Con Microfono Ps4 Consolas Pro</t>
+  </si>
+  <si>
+    <t>89.990</t>
+  </si>
+  <si>
+    <t>Mini Plancha A Vapor De Ropa Portátil Viajera Novedosa</t>
+  </si>
+  <si>
+    <t>61.500</t>
+  </si>
+  <si>
+    <t>-30 segundos para calentar* – Si la ropa está muy arrugada, se recomienda realizar un planchado en húmedo después de calentar la máquina durante 1 minuto: es decir, rocía las arrugas antes de planchar. La suela de titanio se calienta rápidamente y a una temperatura constante- *Planchado de 360°* – Con cabeza de enredo (diseño frontal puntiagudo) para hacer que las cubiertas de panel sean más áreas de planchado y elimina las arrugas de planchado y elimina de casi cualquier tela, pero no se arrugas. descuidar el sutil descuidar lo sutil piezas como el cuello y las piezas del botón.
+-Capacidad de 50 ML- El tanque de agua está oculto, está integrado con la máquina de planchar y no hay necesidad de quitarlo para añadir agua. Antes de usar, simplemente abre la tapa del tanque de agua y añade agua al tanque de agua con una taza de llenado de agua. Puedes ver el nivel del agua dentro del tanque de agua en cualquier momento. Ten en cuenta que no llene agua para que el tanque execure el máximo en la taza a la vez. Las gotas de agua en el tanque de agua son normales porque realizaremos inspecciones de calidad en cada máquina.
+-2 en 1*- Hay dos métodos para planchar: planchar en seco y planchar en húmedo. Con el método tradicional de planchado en seco: utilizar su gran panel de aleación de titanio para secar las zonas húmedas de la ropa. Planchar a vapor húmedo, simplemente presiona el botón de pulverización de agua, luego comienza a planchar cuando el spray sea satisfactorio.
+-Accesorios a juego*- Hay taza de agua y Manual de instrucciones y obsequio convertidor de redondo a plano : la taza de inyección de agua puede controlar la cantidad de agua inyectada en el tanque de agua.
+-Actualización de la versión*-La nueva visión es portátil y fácil de operar planchar proporciona una nueva experiencia: fácil de usar sin cansar las manos. El cuerpo es pequeño, pero puede cumplir con los requisitos de uso como plancha eléctrica. La plancha de micro vapor profesional es adecuada para felpa, lana, algodón, lino, poliéster, nailon, etc. Se puede poner fácilmente en maletas y mochilas y luego llevar en cualquier momento y en cualquier lugar. Esperamos que tengas una experiencia feliz y fácil de usar. Ofrecemos calidad premium y el mejor servicio para ti.
+El paquete incluye:
+Una Mini Plancha portátil viajera
+un convertidor de redondo a plano
+un manual de instrucciones</t>
+  </si>
+  <si>
+    <t>Sonido Vivo, Claro y con Sensación de choque: gracias al controlador de neodimio magnético de alta precisión de 40mm
+Aislamiento del ruido ambiente: Orejeras con material de cuero y almohadillas super suaves sobre las orejas que son más cómodas para llevar durante mucho tiempo
+Las luces LED deslumbrantes están diseñadas en los auriculares y el micrófono, resaltando la atmósfera del juego.
+La línea está equipada con un controlador de volumen giratorio y una tecla de silencio de micrófono conveniente de usar.
+Cable trenzado, resistente a la tracción que reduce con eficacia la resistencia externa
+Conector de 3,5 mm, es adecuado para iPhone 6/6 Plus, Samsung S5, S4, LG, Xiaomi, iPad, PC, computadora portátil, tableta, etc.</t>
+  </si>
+  <si>
+    <t>Molino Eléctrico De Café Y Otras Especias Pequeñas</t>
+  </si>
+  <si>
+    <t>55.000</t>
+  </si>
+  <si>
+    <t>1. Alta eficiencia, puede moler todo tipo de maíces/granos/hierbas/especias/nueces/granos de café, etc.
+2. Fácil manejo. Presione para trabajar y suelte para pausar.
+3. El tipo de molido depende del tiempo molienda, a mayor tiempo mas fino (No debe durar más de 45 segundos seguidos para evitar daños en el motor)
+4. Tasa metálica y cuchilla fabricada en acero inoxidable, aptos para uso alimentario humano, seguro y duradero.
+5. Bajo nivel de ruido, sin vibraciones durante el trabajo.
+6. Pequeño en tamaño, ligero y potente
+Especificaciones
+1. Nombre: Molino eléctrico
+2. Material: ABS y hoja en acero inoxidable
+3. Tamaño aproximado: 8 x 17 x 10,5 cm.
+4. Capacidad: 100 gramos.
+5. Color: plateado/negro
+Modo de empleo y advertencias:
+1. La máquina debe mantenerse seca, sin humedad ni grasa.
+2. Pon el grano en la taza del molino. No use más de 2/3 lleno.
+3. Presione el botón para trabajar y suelte para pausar.
+4. Cuando esté en uso, la tapa de plástico superior debe cerrarse herméticamente, nunca la encienda sin la tapa puesta.
+5. Por favor, utilice menos de 45 segundos seguidos evitar daños en el motor,
+6. No opere continuamente la máquina durante mucho tiempo, puedes usar esta máquina a intervalos.
+7. NUNCA limpie la máquina con agua, puede limpiar la máquina con un paño seco o un cepillo.
+8. Desconecte la máquina después de usarla.
+9. No permita la manipulación de esta máquina por niños
+10. Asegúrese de cumplir con las recomendaciones del manual de instrucciones.</t>
+  </si>
+  <si>
+    <t>Radio Comunicaciones Baofeng X 2 Bf 777s Negro 3km Boquitoki</t>
+  </si>
+  <si>
+    <t>115.000</t>
+  </si>
+  <si>
+    <t>presentamos este BF-777S 3W 400-470MHz 16-CH Handheld Walkie Talkie. Este walkie talkie con cable puede funcionar bien en cualquier momento y en cualquier lugar. Con un diseño simple y elegante, se puede usar en muchas ocasiones, como aeropuertos, plantas de fabricación, conciertos, etc. Además, este walkie talkie puede transmitir su sonido a otros claramente
+y en voz alta. Con este interfono, puede comunicarse con sus socios o compañeros de trabajo de manera mucho más conveniente. Es un gran asistente para ti. No te lo puedes perder.
+Con un generoso rango de hasta 3km (Rango al aire libre sin obstáculos) puedes estar conectado con tus amigos y familiares fácilmente por ejemplo en una salida de picnic o mientras disfrutas de la playa o un parque. La calidad del sonido es excelente y la exploración automática de canales es una forma rápida de encontrar un canal abierto y de chat. Incluye mini-linterna incorporada con un LED para emergencias.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPxiuSaRvI478yNSiOnEAVArUvLBVsIcI_OKqY5ylI-ExEagVN15Vm0OUzuwyBXEXWcicBjUKZxbUF-8WhMKkgUaBz8AXTTie_IwCErvbuDlK6lWOBiSdhdY9XJRLix2IavOvg54875244aDmliJqx2tg=w720-h938-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNShwSXUswVs4c-Cy3zr-LcNfsvhKfg-TMK0n44lDOBaCsiEIulRAdOwIfsmkZrWaeOKUuesf1Q8oOFXQnpwOrCL-TFo9DLHx_zCVtGDGLePp7qtwiN0oXWtW60fXq1dN0gfJdF6ltz7JrMLR-eS5zznA=w600-h563-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMTq3_KcmuQNIa0gGbWGU_3OXhf4mcSYVqkxWEzjtZf3Wmafh89Fw9bhiQp2yBSc5to8WuTXhvvIazxGnrfRH8EO0OXvjAtqroCdTZGDDtGh6E5rjmQlgs3x7k4r_dyB6revBjE6wwGhRcS47JLb2ErAA=w1000-h1000-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOEWQ-kuToKdWRXRxv6I6zDi_5rwP_8bnNK8UbncVtDIUv-BK9Z3zKFv2TUCcrG3H3xQjtDflxW4H8xBhANgpa6l2QoExOv5LWXW4GxcfajgzJQbTqY1Yb1L4GmW0SSxwmS_RxOXP-TodN9S9cqefeQkA=w1000-h1000-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN4_y-jaPPQ9-24xrigHilK5qU8ylxdgLVKr3RoX-ia6EU1Uu7eloWxjrrCuWP8EGDRb2LZntnl8CSPlolHUoX-L7-zvtVOFpEHW54V-BgWqUy4sysrPVvB2MU0mUnNYuHWY3aOUtayIGKSqJHwUxZCNQ=w596-h552-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNjFrFTqoVB1LIPxFHwduv9YO5Bl_2KEkDnxJX7-TCD9aupVjaC4YahH72J96H7TuiJLgSAUIkXg2Zt9qg-vYpeQOr_oKgJ6hO9QB7xA1oGXV83RRDSYhxn55rwy5xPK0jjSqa443xFPfCJRclQS5tqrw=w700-h639-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNfffbESix9_92eViO-sVpPc04qYweoO5dv4perZan6SJPs_U3rqEMcUDZkE88KoG6xiy_V-Oln3nYgem70viZ8G6VSWCjVSvG_A4VlaVIr5xdM4uUbXPRA_dns29mO_uv2LGsljMU657C2H6iPABgKwg=w1280-h958-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczME4c3xJshhGB0GpJJTqTPul6GNAY77C749Dac_hviASzmnuZvl8qTiVwGDhIwHbQYCzNDH1I4yLYVCA4tKhDqU4aTL1MrPivqLx9Ev_9akkSTsXJojzV0t-cCPYKGoHJ-NLQuGL9phddIZ_KBvoHL7sA=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPoiv66vXqO-Sa-YXIEdsR-yYC-dfT-h2P_JwErn1CivGKckh3aIOXZ9zOqO_YnT216XPjZ-r5u4iGC0VKWhhpRERUfmqzS2UqDGMmsDpsnW1NgDEodT3UMebFKYRDsWdXgcxFehDWpmZaDG07UWBZV1Q=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOXVA7eQVk2YNPOKfEeZh6zpgjmGCXDa8JXBlre9PKgyrkDgdZZiAvRhFmCHH128bNsKrQFCdTFip1-_grpp6rWYc8kNjAQ3Wvphb7qPHG6Ik7P8xfOONMQiXycfNSWTEAZOdXXMjjqIJ3xztlVSpMtZA=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNMHMik7MzRRyCL_U2axPMRgCyMIdBLELSQ0HVaI0eJPrfsiqO8vCJFB3b_m43LwkdhZ1LkfpA6BahwsR3GClsQzdPdfZgRY1kT9OTNFniwFW8rEidFlCRnhdSPmNhF_qMSuQ4xXwCpYuACYUtWWjtLMw=w1280-h1149-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOvlqLFwo1tBZSq9GrB4K_rEukuEEOlj8h9Vy6iD1bCarEGuzPmu9kmnuy7ZLecUj_Z2hShh0ZmtYPgFVgBhpE9OoysEsCwvn-24o7r3o2Koz60CccuyKngjjTGhDPLJl6eQTPywW1FNBP-yW5w6CFKXQ=w1024-h843-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMN8T-hs_mn4TpaY3-Q1hpWCftLe25nVCdrcoRKz32xz55L4yNIyuSvekLSiRdaOMhUhcrQRpkwF6vpPmqVlO4gMf711zylDVRTwv9qeQX0C43vl6Bfj7H1-5ehOhB1jkS4mzm1XgO9Qg2EptC-RkIKyA=w1024-h983-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMWwQO_-nt2FAnGqEA0PULS6iahlhN0L9UJqKSuSEXvHnUWvWI9_A-CDK-wY07tJkKuf-BGLgLhgv-EZY2ZGuyg0Vu9Je4kGu9RnbdJhr0enXGHuQjM7MrqusXNgBpnHx3Ug1WwB3JihDAgWxPcH4J1vQ=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOkCF7InYbsgQnU6mSk8aF-ymChfAwsBiCfuNkKwzjPlnIRolU_QaGiYjuK8Wd8cZOjorqo2yIMeJ26ezD6Kwy6aXi7NWHIz5B0z4u6cWPM391meI9NY8J1v9Jj_0dOuXdF35qR36PJw8n1f9t46c2x3g=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN7BtqPRB_U7eCQGmxEf8rJtzGVQHx1a2RJH961ogORgbxwF5L0WUvCJ5uzD6w_aW2bfcISeq_bxVQaQtY5zebVVoutp3UHb1z0yZYTDhZ-mywfRmRX0kn8lL8EYN5NKiAbbi1iBAYI2kjHg8RWHEXwzw=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMJetryWGuZwr25EmcP_cMKywQ69L8qZpPwR1YUtw4LwOSHvj_T_yGP-efW8qQPoS2ycF1TeJp2e_o_E8b6OHStIJx7_Z4ocW_65mayOz2Rl_iu3IHC28HTRre6u1f5AvTQpfKs2dixlfmbVkJYRjuc_w=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO6T4XL29fW9xLixQYXNiMpyIAE3C21FxhU-5BktLgWIc7_71cOxUM4GPqC_rBUp6QDtLtDVj03miwZKBNx0uw8aVpKIuVA8x3YNcOIR_9SKSwSTUPfNAHkJMJDaMyQMf0_0nexr6dn4p4-1KpSnGbWPA=w492-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNWVRJNpWYH-Fpt3XynN_WHbS6hT75WRk4OQmH1k_4OwuyecS3Icmg89RAWlxMuwwLseV_pFtn7lmEsUDCEvKJHo57r4vLHkDcFVmhozIfANcGC43hTA9SikM14B-mISTHhUBVdKlo8aViN7AzkBg9rkQ=w500-h478-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP2VSGx-vJtehNI31azROVSMb3MoQAmiFcHPBbkWxyo8s0m0_3ux3gbHr6oWhpMgDYfhh4_yKWEmzyHH4KY7yrnxdIdLWdQVeHB7VZlXk4cfmCMEs555efQEbz3zPE5-ek9PtbSGcO0eIyUL4gDQwkKGA=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPKVlV8ZxfjLNDxvjLYUuqiifmYJuD6eG5zpjDGkPuswMv8Z1zhtwSLWwCBXNI-LK_Xsj_pAcVZ5b2JwiFovEckL6BnkDkXaWeyMSbOWarvbgX2qFsbZwL5jRksLG1qAo1oboreqJD5Bux03yDnTOEtTQ=w498-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPhQ6tNhpFoSkMtPwnM1dRlFjPXU2-DCf1C7XXnk4C5DUAX2E0YVbflvh3ASe7fYmOis9y4GhTZ47i-zh67qu90Y30mdGEKzj-zjY5uozBZuObcJYjsFRo2DmMqBuLTamzQlb5LrkUQBN9lf24NSi8CpQ=w500-h489-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNDlrqgtTcyqPYf0dgtUm6Zt1UpSg3wQhBeAgHj3CEOWaMH8zjv_e2eqwPN8myt9m0btOz6vP9ANKJDaTMjhruzzKnGoGGrS53u7T7VFoXqa2-4lo7S-53zJDa8cX1i6gKKpQosPYxNgEgFxd4bbGp78w=w500-h297-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO5xe80hJmpaRuTbdnhFnvyWtqa3TmlT7o8zqB5NwNGqBG9CvYTzjvTcAkhez6jmhmfJpKmismxXdS4VLCYPcxEuvvzgjr5N0p2I-3SmiUkLiGYBDDoJ8Rt8B99kQOsnFE3hU5UpE-XRhIBVFq0PxrEaw=w470-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMm-p0wxkPC5IN5ojkVstSm90ByKh9R3ifLzwodd1uyfpr9Sb538EDsgeulON-dtYFCzdtm9TONQyB2LDO4JLgW4Pf72QlSTVorZMOHwW3HP-yH2UqgjHgfBSE0lHhjuD-xCUM9exi3mzXcyx1zBCNy_A=w500-h499-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMu2y9lqY7taYw_MrEyMH5-CdTnK1m7jRfYXlDiJ75X1WaE4eKX13tnG6CzzUKdQ8szRJiHOV5AWiB_mmDXVnYUDUFQnB2iAPiifHSPDX50q-7FgqmBhPtfrHLy8wCyrbyO-wbB3SvQLqHNFJnJPMl6AA=w500-h449-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMq80m_Ukfzq4SYJcghNQL_fYLZl6fHssh7MChE_edeMq9XXY3DFpNkGuOSxVWTCP0AIv33edDdPP7BfNC8GAmYDhLs9ke2mq2pEUVXHUzbDnbsyuaF9uZ64YeilKP-cZvmITRf7hBVM_aRvfipYWIGNA=w901-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMkeVhnmuJ7mJrgEnxjV_hi7giNCSnVO8eeIawRDW3aeHFXZ2QCjQhApNdA7D5uskG4y75P3BnkClSsxCawbzDKUFf9QOlLn-9lSCh39efD3Bru_QJDhY6euZcDygpTCmeR1B3U1g7n9Rxj8FPqaPf6JA=w500-h499-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPipE7fmm-GXJ8dNpWCk6ESpsuv3tf-FEB_YJem7BLbxWhkRzGxCDn3w6qK73C9eQNVg7uODy5DOKRnqvsQ50TLBXcyNmP-s94DoVkBsA1UFYcpCeCdht4QS1ddbET58cmGOMoEkRhK0pfToE00oslhXA=w470-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNdyqVrV3ZLafUKC5b4c-SCO2eIejocSPdP1JTvXjHi2leE2oS84AHmiudmdbeC5vrs4FNygBTlN9G2MSxjSCaW1QRydGkIq3ct3AVOZ-hZxVi9xCabcPy4YH1HUnhCzG0prIk0aMTkMfbU0rfSE9m6YA=w500-h366-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -908,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +1064,7 @@
     <col min="6" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -932,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -941,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -961,621 +1101,725 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="1">
-        <v>23456</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="1">
-        <v>23456</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5432</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9876</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1">
-        <v>56223</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="345" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="330" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,6 +1887,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{90117452-467A-485C-B610-C6F4271DA73A}"/>
+  </hyperlinks>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F3C46-CEE9-4F80-A650-72E619DC6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0887E-B958-4ADA-B5B1-441A1E3606B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="277">
   <si>
     <t>image</t>
   </si>
@@ -633,6 +633,584 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNdyqVrV3ZLafUKC5b4c-SCO2eIejocSPdP1JTvXjHi2leE2oS84AHmiudmdbeC5vrs4FNygBTlN9G2MSxjSCaW1QRydGkIq3ct3AVOZ-hZxVi9xCabcPy4YH1HUnhCzG0prIk0aMTkMfbU0rfSE9m6YA=w500-h366-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP2M-v19tMTe3_kE2kUYF5C5_Up0BwFb6tmDSrIxIJmTZl7yQ5R_OOJNma73CUUtAsZ9Jk45Pl18DeuaW3fAWW39P1-ACWb6CXU7CSgRmfhlQNl1LO37BMaf-BA8Sjk84OCShi9cTNsJDeJk1khuqV4dg=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Tambo police defensa personal</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>Tamaño cerrado: 20 cm
+Tamaño Abierto: 51 cm (completo). La vara se expande 29 cm
+Peso aproximado: 480 gr
+Secciones de pliegue: 2
+Materiales:
+Vara: acero inoxidable.
+Empuñadura: Goma en polímero ergonómico.
+IMPORTANTE: es completamente normal que el tambo se atasque una vez se abra ya que esta es su funcionalidad para que no se cierre mientras se usa. El tambo no se cierra a presión sino mediante un golpe seco contra el suelo o superficie solida (ver vídeo que se encuentra al final de las fotografías en esta publicación).
+El tambo cuenta en uno de sus extremos con un tornillo para asegurar el bastón. De esta manera se impiden aperturas accidentales. En el otro extremo está la vara, se abre con una sacudida (golpe seco) y se cierra con un golpe contra el suelo (ver vídeo que se encuentra al final de las fotografías en esta publicación) .
+Es marca Police de Shen Suo Gun. Todos los tambos de los que disponemos son en color plateado, no hay otros colores disponibles ni tamaños.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP8dabF48jo0JTMy1joQYZWS1iuxWEHBFIsUI9L-ORFKaLrOWxE8q96v2e-Xs_l7V8sfjQm0e00OFUZaMfE-SjcHOSB0RUVTDoTDms6824dCe15XA0fE55UCMgVpB1Hc-R2Qs788ynkdvxMP-RZXxk87A=w500-h432-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMhaKLnNNtCh3PW9gnUiX5E6Pv2hIieESjdcNrHYlH-5LNSAexrnPhkXsoCbEB_zxVpo7TATckqVImnRnl2VgeBZcA4kA9YYeqNXoFwHU0E6fs1Klh1-3n7MMcPVbpT8bvYFMnhC4BvcSJ0TWdCX68ocQ=w500-h448-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNZ7DmyDxlYZnNd0fnD33CHthsuwyMqN8heivE5wiRNAe7YKNEUCw8yatznGAq2dZkz2357ACLdw11GIxrV0ulALYRY9PLknAyS9xaMhqR4s7svdTvYaZFbsRVOfY0dsHdcIWfGvsQeigigZUOTwzjs3A=w469-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Camara Ip Tipo Bombillo 360º Robotica Wifi Vision Nocturna</t>
+  </si>
+  <si>
+    <t>72.000</t>
+  </si>
+  <si>
+    <t>Mantenga un ojo en su casa en cualquier lugar y en cualquier momento a través de su teléfono inteligente, puede girar para ver en cualquier lugar, 1080p y clara Full HD resolución proporciona una alta calidad de vídeo en la palma de su mano.
+La detección de movimiento: Esta cámara inalámbrica tiene una función de detección de movimiento,activada por medio de la app. Puede configurar la advertencia de voz de la cámara y también puede hablar a través de la cámara para que puedan escucharte.
+Vista a distancia por teléfono, sin importar dónde se encuentre, puede ver la pantalla de supervisión en la aplicación en cualquier momento y en cualquier lugar, y se puede hablar entre sí a través de él.
+Uso de camara para interiores.
+Modos de visión diurna y nocturna: Es una imagen colorida durante el día. La imagen es en blanco y negro en la noche.
+***NOTA IMPORTANTE: Por proceso de actualización en aplicación es posible que en 1ra configuración la imagen de negro y se quede cargando ,esto es normal, por favor si sucede esto resetear al cámara ,re agregar la cámara en la app y volver a configurar, ante cualquier inquietud comunicarse con nosotros***
+Tipo: cámara IP
+Alta Definición: 1080P (full-hd)
+Lente (mm) : 3,6mm
+Color: blanco
+Megapíxeles: 2MP
+Cámara de uso en interiores, no apta para exteriores</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOjXUeTqqAKqZuSYlU_0wh2uAeljClDm7xYyndmdyrKgsEYyS2UeaGW_h7qrru5uE1NjDD97b3nDmC9-eYUXFXSWeJ08gMU-m5iL-AzYrHnKDDsvb3_4Px9nZdaoiEYU2v6cKzDAsvB9X2cz3i0nhKlZg=w500-h392-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPXExvIyVq2-M_1BEfHWPjxnFTI42HItYxj72PzyDOLA-8vE19hWVH-Zp72qI3JJrx8AGbzO47nPIIbcRPfEl1nqUo9Mp4PasAfCLCSzefR9wFRbM5T6SSJW7g1jiuJxo8JeYa90sDSbJzheswQQgslmA=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPMycV41RyGr2LWzZhA6MGIGxAd5FdusGyCGRD137hMIDrTBudsDt8IFbPPtu7bIzapm_QiSXY67XlIi89cW5Ok4b6a8aqBQUuCxBGAJfTBtLVUU9YtKOJnXw1c3laC_ms22j1ADsHTMp05o3BR7GW7SA=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Teclado Gamer Numerico</t>
+  </si>
+  <si>
+    <t>Teclado Gamer de la marca jeoang</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO84y__W0ru0xe4Em4YNyCPfJPFAQAbHm8FPBihU0mrR5jMiLnWwq3q5veAlCD3q_45bSJG5xnwEFd7gPlhzjnMc2JJVUal2Y2S2H54rwYM6nu2XTsw3dKg2B8RUnmOVnahXUgDQceEMOSSJQ5ZODoymw=w463-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Mouse vertical inalámbrico recargable Weibo WB-881 negro</t>
+  </si>
+  <si>
+    <t>57.000</t>
+  </si>
+  <si>
+    <t>Lo que tienes que saber de este producto
+Contiene usb inalámbrico.
+Puede conectarse a cualquier dispositivo a través de Bluetooth.
+Incluye batería recargable.
+Posee rueda de desplazamiento.
+Con sensor óptico.
+Resolución de 2400dpi.
+Creado para llevar a todas partes.
+Control inteligente y navegación fácil.
+Adaptado a tus movimientos
+El diseño innovador de este mouse es ideal para actividades donde pasas mucho tiempo en la misma posición. Con este dispositivo podrás descansar tu brazo sobre el escritorio y disminuir incomodidades de una mala postura.
+La funcionalidad al alcance de tu mano
+El sistema de detección de movimiento óptico te permitirá mover el cursor de una manera más precisa y sensible que en los sistemas tradicionales.
+Plug And Play
+Solo debes colocar el receptor en un puerto USB de la computadora y ya puedes empezar a usarlo. No hace falta emparejar el mouse ni descargar software para utilizarlo.
+Conexión en cuestión de segundos
+Gracias a su tecnología Bluetooth tendrás la libertad para crear cuando quieras, donde quieras, en la computadora que elijas, con toda comodidad.
+Mayor duración de la batería
+Con batería recargable incorporada que puedes cargar fácilmente con el cable USB incluido sin necesidad de reemplazarla. Para prolongar la duración, usa el conmutador de encendido para apagar el mouse cuando no lo estés usando.
+Apto para fácil traslado
+Navega rápidamente por documentos y páginas web gracias su diseño ultra delgado, ergonómico, liviano y conveniente para llevar a donde quieras o viajar.</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNz-moNkDVWmKabpuaFrDGsme3E8z1OI7-TjoFE0lg5TT7P4EnMFDP9XY7nJMROaiRFh7yPnYrIxQdL-d9Z18x-YbkWImD1q2PIyLEpKeRLD7D7Ks_oTjVKZYQX1VF1Tt8qINxXuVZ6l70L3EGpO8139A=w600-h600-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Aro De Luz 26 CM Con Tripod 2 Mts</t>
+  </si>
+  <si>
+    <t>Aro luz led 3 tonalidades luz, 10 intensidades de luz.
+Aro 26 cm diámetro.
+2 MT trípode.
+Control alambrico
+Soporte celular.
+Verifica nuestras calificaciones.</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOLYiw9sAMDvLUuykcXMJXnPcahs3KTc3QFyY4H1jSvomcr-4QqcoFGkihsEUF_T_taxAqe8Wu32lh6QZuOyO3AUAnX0XH5fc5fd4CrKABC7olFQOIsO7F-WXLdxcmT3PVYFAlm82XRMaMs2YbZQkQE4w=w500-h283-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Reloj Smartwath x7</t>
+  </si>
+  <si>
+    <t>El Smartwatch X7 cuenta con una pantalla táctil Full Screen de 1.54", ofreciendo una experiencia visual intuitiva. Es resistente al agua, soportando solo salpicaduras, ideal para actividades cotidianas. Compatible con sistemas operativos iOS y Android, se conecta a través de Bluetooth para una sincronización eficiente. Su memoria interna es de 32 MB y está equipado con una batería de 180 mAh, proporcionando una duración adecuada para su uso diario.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOBFyoOjpH3iuGeJoM_qe2Fvt1-DTAJP031ck3uW19PNkrNRyBOge9EPoDDCOavYyZ4ePk0ZMeHAi1h9Z07a4EsicyQwQLAUxb2oMgXQsPm476kvEpBnBO1HAgSkfqeXc5Sbf00d5iKVAWGZhbm8pIfuA=w500-h499-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNPZa9-xBRIVT99PhE5VzC7D9FNHhZKcMtnQRnsUjVA05pam1pNnS83JsXkxxJ8B7k2gUtrt0_rX3zUGgnPrXLHYdrhPiQgQH-pssR8SmbkXvfg8OZPqUfT6h3Zu5q89HvqnQMuoChc020bk4k_4bdhdw=w400-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO7FtzoHUNfc4nesK1c6joQzV_Eh7trCRmjoRFjYTZNTaBTnnE3cI8HY5bWTOsSOiHyuzPb3z4_0Gg7ajouA4MZlJzEI0YtZjcnl1UpDYztSHG-tu8bnm2t1SvIx0xQqL_C0BRBv4dyJDR6zUNyC9IQTw=w500-h359-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Elévate 5 CM</t>
+  </si>
+  <si>
+    <t>30.000</t>
+  </si>
+  <si>
+    <t>Este cojín de tacones aumenta hasta 5 centímetros de estatura de manera rápida y discreta. Fabricado con plástico de silicona flexible, ofrece comodidad y resultados instantáneos. El juego incluye 5 pares de plantillas, con 5 niveles diferentes de altura para cada pie, adaptándose a las necesidades individuales. Es fácil de usar, discreto y adecuado para hombres y mujeres, encajando perfectamente en cualquier tipo de zapato. Las dimensiones del producto son 16 x 16 x 3 mm, y su color es claro, asegurando que no se note fácilmente.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPOn05TAMGglpSfMtzv1eWFTX44RKtgl0pfUWOyvpkeAO4imoaOsSJ4dCmWvtkWwNrLEcHHALAOcr5Mn71edQ14rg70KmXIMTTdf42X2dj6IObfgGPuBC5MFuV_hDBp4WW2lisWqn1JI63ItZDuG9Gs_A=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP39QJwtGZAyJoyizYPXlJeyHuUu1kuz9Eifbqy8Q3M6uojIVfbheTrpv5LlMtF0hiZuGiYmd7HZLMVUxi_wpROUtDg2ki8wGo4TGmXM2qU3TSZP-HRH0B3vD4wk1_zZqlX6aa7mFGER1yUgOMvpc0Agg=w500-h463-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPFvDcgyySOYIMrqtA7cIaQ0sm27BW53kwlYLWcZSs7JrJTLJ-gMEPCyiI4HQYJKh7vUEm0DIgEqRG1xs0VHA7hFAHBWhhoIOMUfiMqJ-1RHhaLmJrxy9ppeNxGGqte7U6bKq8uN--sXvTV6LSw72YpVw=w479-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPzVqqBRrl2qn2eGXPtw0s2DnhF9W44-ypJGRp-wslAO2mPGIIprGW3PJEXlSXvgH9DaQEPtiHCGAnha9sGZe3SS12ZzUMhMFMnfc2bgSPkNBrRsUualRWkAyten2isrqoa_vpPJRgc2AwO7rcfbiGQYQ=w584-h616-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Guantes Para Dedos, Fundas Gamer Antisudor Pubg Free Fire</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>Uso del producto:
+1. Retira las fundas del empaque y úsalos en tus dedos para jugar en tu dispositivo móvil.
+Cuidado:
+Lavar a mano con agua y poco jabón
+No lavar en lavadora (Daña el producto)
+No restregar
+Revisar el estado de la pantalla del celular (sin grietas), para asegurar la duración del producto.
+Características:
+Material: Fibra de Nylon.
+Se desliza bien en la pantalla.
+Resistente al sudor.
+Protege tu pantalla táctil.
+Elástico.
+Se adapta a tus dedos.
+Compatible con todos los juegos.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMHZYsXK5k_cFjUHdQEOdESHtZWm-DoqmNMfe6yqS07fKaWreRifAOi5Yy-wNVsnoneYTq0r4AP_ACt3vc9c237lRm8ugwOY7lPrxEeayz3WTo8NTRW85WSbRSKJl2JBFK80pEHWr_5owkodhxktoEXdg=w605-h565-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPA_vUxUsSff3RUZRea-7V3cc0fOEa3xV1fRDTk1Ir5Bcly4he6qAPD7Bs3RMBgQ3Ul_Yt24mqSlIO5tsooGwKi9hiKTuhi4isZIH1GfqcFAhOsooXiz6gAT1_KCoYZ1pMSDykeB_4FviLSWX_Mmp0wrw=w482-h482-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Tabla Picatodo 3 in 1</t>
+  </si>
+  <si>
+    <t>43.000</t>
+  </si>
+  <si>
+    <t>Tabla de picar multifuncional
+– Práctica tabla de picar con tapon para almacenar agua,
+– niveles de profundidad
+– patas antideslizantes.
+-Manijas antideslizante
+-Diferentes niveles de llenado</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNaQux2MQyb9yj40mBQACC6dV1GVUl3OYQGxEGjtYMflcuWj7bvbTbFu05AC6EUZs1fNPEaUtT1cW1vfWDPVAVniEGgp2NFZDbE05JyuXR7mypM8S-CavZMwbUqs_naXHMZ39-ZvydPISb_WgrVcrzMVQ=w720-h736-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM_jnnqycv1-E0po1-mIns9VupwArhweKnWqGInnVP-Cp_N5bWUKNs-MBVCqlezQrihvX11n6zbG_C5J3AAl2dlsLyI8hFA2tQS08ObjsJr9UvvpQ0V5UILa9lZ_xgm1LXfDpPMeyFpJJHHa_pWHKHgJA=w720-h716-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNaB1OxURteMy0rFd7g5-BlO8USFuFf9yNp0ie_mI0zMCWhYnj978Qlwdtd9EElLtlsQVvi6wS6v2KI7TzpFOouRTGrsIIIVhZ-VVx166lB9QQ5fReSQHAW8KOP6lXLu_xEn4qHTmZaRXbS1DoWQOfa1A=w813-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Llaves Multiuso Universal Snap And Grip</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>LLAVES MULTIUSOS UNIVERSALES
+El juego Incluye 2 llaves maestras que se adaptan a todo tipo de tornillos, tuercas, tubos y hasta tapas.
+Usan presión en 3 puntos consiguiendo una sujeción firme y estable. Se adapta a la medida y forma de tornillos y tuercas, tanto si son circulares, hexagonales, cuadrados, sean del sistema que sean, incluso hasta tuberías.</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Gancho Porta Celular Flexible</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>Adaptador en forma de gancho, para  su celular, manos libres, cuenta con clip adaptador para escritorio, repisa etc. Soporte flexible que posee un clip o gancho que se adapta a cualquier superficie, es universal para cualquier celular, se adapta a cualquier posición. Facilita la vida diaria permitiendo realizar otras tareas mientras se escucha música, ves vídeos o películas.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOrDDIybJm1OT37-0P1IhjmYnr4BO69zl7tspmaqitkhtrB2RAZDIEzUBEqm5qSfXiE7Sm1RTBlbFLa8fKPICrONSC1mH3vzIUnlPbQp3Az3JOrOsLNk_l-pxR_tG-YaoiRjq3EPdFswBHruio_Snk8NQ=w340-h340-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Maquina Peluquera Profesional Gm-1030 Progemei</t>
+  </si>
+  <si>
+    <t>86.000</t>
+  </si>
+  <si>
+    <t>Cortadora de cabello profesional excelente para su uso personal y profesional, cuenta con un motor de tecnologia innovadora que evita el calentamiento de la maquina en un 40% y trabaja a una mayor velocidad de corte para lograr un excelente acabado y mas a ras, tambien tiene cuchilla de acero inoxidable que son ajustables para variar el largo del corte.
+Contenido
+– Motor de Gran Potencia
+– Cuchilla Ajustable
+– Kit de Aseo y lubricación
+– 4 Guías de corte
+– Peine</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMh2MEVSBFF9Ypp1xQrVZU_agrkg91dnAasBNWp4rggc9sEX80O8LPAyBSAjwheLhxmc4cTEcOVtbr9YkSaqD5lt1e0OEVLcENxlGa3-Y-4Z2bOPb1d5K1sscldC7zAlXf_9x5C01JKCHViPc16h94W6g=w600-h600-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPq0I0WKsxBWVVaDdg_c_2xUpaQSIpTsFyFeaR0rRjgwQ6FnX6tEC0-axtBDiL1I3KCMmmF8dFpwMGrcYO-vWteIbN73QGRoME9HgeYEq9nFnbL5UGHKdUFC1RIuIRt7lhRzTVcx6jhJVjzgKpFxb_kWg=w450-h450-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Afilador Cuchillo Con Mango Ergonómico En Acero Inoxidable</t>
+  </si>
+  <si>
+    <t>Afilador de cuchillo con mango ergonómico antideslizante en Acero Inoxidable
+Este afilador de cuchillos profesional de tres etapas permite afilar de manera rápida ágil y segura cualquier tipo de cuchillo.
+Es de tres etapas:
+1 Tungsteno: es el primer paso, da un filo brusco y fuerte en pocas pasadas (recomendado dos pasadas)
+2. Cerámica: afina el afilado en sus ruedas de cerámica con el mismo procedimiento
+3. cilindros de cerámica forma diamante: suaviza el filo y la punta
+No necesita ser muy profesional. Solo tiene que poner el cuchillo en el afilador y pasarlo varias veces, el resultado sera un afilado agudo, como si fuera nuevo.
+Notará además que la vida útil de sus cuchillos será mas larga y el filo mas duradero.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNuvi6ctdTGO_X0ysIMgF5oQSqSS9VSL5yvS9K3I17f_mJsilOaxEgrvSxQGSML85IpMNVdhntKyOrXb001mxhQ5SH8SHLEwWl9xhvQCQ7v50zCX0iEmGPOrr8-c99uDKmu6p5Ad46PNsZEPghP4S6JWg=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczObp-cvatxaA2Cw-hwW3DPBWkCULeR3ohFbBHMBI0JOgIa5sx2AF2xoOtz12umzd4t5ingAdirtn0CV7Q5VsM2JHGdfqTi0EI4SW7TpDxxawXjeaMLtGFFzZj5njFzhm5i3Ndv0dCsvR8HF6V2TwswSug=w788-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Repetidor Amplificador Señal Wifi Router 300mbps Inálambrico</t>
+  </si>
+  <si>
+    <t>71.500</t>
+  </si>
+  <si>
+    <t>El repetidor WIFI, también llamado Range Extender se utiliza para ampliar el alcance de una red WIFI. Un repetidor WIFI funciona al recibir la señal WIFI de un enrutador y luego lo amplifica y retransmite a nivel local.
+Con un repetidor WIFI, las computadoras e impresoras ubicadas fuera del rango original de puntos de acceso pueden acceder a la red WIFI extendida. El repetidor WIFI duplica de manera efectiva el área de cobertura de su red WIFI existente, extiende su red al otro extremo de su hogar u oficina, solo necesita ubicar la a mitad de camino entre las computadoras y el enrutador.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM_jEsW9AHgdZpJajcgr6nYcw5kfOylsDjj4C2xo9Sl3pK1EKbzCgYGPzoBjW2MCLkLPGy-nxKH3Js7tbC8UTYwRdnghF7DBAkmWQqLfD_sNe6b3bCfTdWPNAFjjwG7TUv1ib2u0R1FNNTORsafbudlgQ=w500-h500-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMbozyCKQi-fBNAy2fdBGZLD43GfBVvaF4vly0xUc3eSBzWXaDLgu7CpgWSuZK06lelgh2QxmiUOy1-dzAZhCr8CSgz9MNtf_fPpVZLsAGbx49j8FEAgbyVTMjmgiOLLPKmLzgLG5dOfQfgbrK5_8zfrg=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMOg3Z8KTaZPQeXRX7HkTzD51_trjPhvOza7yOZ9MAL3vDh6oYGEFS1g_7Y7iAwp7ERQBXFQSlciH2nRx2XQna67-ppaFkjkqd9d0F1muA7l73jOj2pRE6hdwNeNFWMk2qHJGoaz2L6V0fuTJbp477uxg=w640-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Lampara luna y Estrellas</t>
+  </si>
+  <si>
+    <t>55.500</t>
+  </si>
+  <si>
+    <t>Lampara proyectora de Luna y Estrellas
+Ideal para que sus niños concilien el sueño con mas facilidad
+Linda, entretenida, novedosa.
+Disponible Morada y Rosada
+Mas de 10 colores y combinaciones diferentes
+Funciona con 4 pilas AAA o se puede enchufar a la corriente DE PARED NORMAL (mediante adaptador tipo celular no incluído)
+********NO OLVIDE RETIRAR LAS 2 PROTECCIONES SUPERIORES DE LA LAMPARA, PARA PODER USARLA******** para que le pueda dar proyección a la pared si no le quita la tapa no le da proyección a la pares si no que sera una lampara normal que no dará tanta luz para la proyección a la pared hay que quitarle la tapa</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMF2jtI1b2cNKXwPZFgHbWBJ78utU6oQT0mWWDRfzAKeD7eSW_dNUSPj1SQvxiKr79szs3agMbYUB1rSrpAp-RfWR0WbSEYIQB73PSXRXlkTCpcWexe00y_7WQEQim9la-VpFSq0vNk44VSoMwnJj1StQ=w320-h317-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMd-Z9zHNj-_lPPiyjzStSl4A3M217M-C2nT1gc1Pw3RFEyioaGKQgshEb8_kKpg6Dps2yybUTn0NoXHFX06swdKSXpDzCHPJI3jMDjC0VvjC3Wq-YT2RqzZG9dm_L0P9xsrirpUA6sTLvvr9ahKV5O_g=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Bombillo Parlante Luz Led Multicolor Bluetooth Control</t>
+  </si>
+  <si>
+    <t>38.900</t>
+  </si>
+  <si>
+    <t>Bombillo Luz Led Multicolor Bluetooth Parlante con Control Usb
+Bombillo Led parlante Bluetooth, con este dispositivo podrás escuchar música vía bluetooth, apagar o encender la luz con el control remoto y cambiar entre los diversos colores de luz.
+Características:
+– Puede ser controlado vía bluetooth
+– Apariencia de la lámpara LED
+– Conexión inalámbrica bluetooth
+– Base de la lámpara E27, tipo tornillo
+– Volumen ajustable de luz y música.
+– Luz brillante, comparable a una bombilla halógena de 50 vatios.
+Especificación:
+– Color de la cáscara: blanco
+– Interfaz: E27
+– Voltaje de trabajo: AC100V ~ 240V / 50-60Hz
+– Potencia: 12W
+– Potencia LED: 6W
+– Potencia del altavoz: 3W
+– Respuesta de frecuencia: 135Hz a 15KHz
+– Versión inalámbrica: 3.0
+– Configuración de soporte: A2DP
+– Gama de radio: 10m (33ft)
+– El color de la luz: RGB 16 color con el mando a distancia.
+– Amplificador: Clase D
+– Entrada de señal: bluetooth. (2. Transmisión Bluetooth 4G)
+– Distancia de transmisión de Bluetooth: 5-10 metros
+– Contraseña de conexión Bluetooth: no
+– Temperatura de trabajo: -40 ~ 80 grados
+– Tamaño del producto (L x W x H): 9.4 x 9.4 x 13 cm
+El paquete incluye:
+– 1 x lámpara LED (con altavoz Bluetooth)
+– 1 x control remoto (incluye batería CR2032)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPer0Wcv6LiiYOmnUusZjCrrHDMrx-9-EzF7C4KA2VK8JAR4Qroi3Al9l0IybtaJU3YLqdNhhn7OkrFROxoCc-nwweQVOYETfnHSdi8dRAxVTBqVfhMyKzpWnYPENZPmqtoU7FQh-XZKtNjAp8oCkLZVQ=w600-h600-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPzi--RKkxJoRgtFqEK4TdsxXl66u4Ph6UZdqTxGMA_f-6DlLNE4vOf7QmjJZ1d0HxkplDxLnyMy3mEHAjZW5RJNDbxwMTyerNjsbDOfPbvBWETlC6hGP9S4fg--rktbR-cDfe1rrKJeltpgKhISBQfAg=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Mini Tripode Araña Pulpo Flexible Para Celular Camara</t>
+  </si>
+  <si>
+    <t>Mini Tripode Araña Pulpo Flexible Para Celular Camara
+C1015
+DESCRIPCION:
+Mini trípode flexible
+100% nuevo, a estrenar.
+De alta calidad.
+Completa flexibilidad, hecho de plástico duro
+Ergonómico
+El peso máximo puede soportar: 0.5kg
+Dimensiones: 18,5 x 4,2 x 3,6 cm
+Color: Negro
+Para cámaras DSLR y teléfonos
+Ideal para celulares o cámaras (el soporte para celular no está incluido)
+CONTENIDO DEL PAQUETE:
+1 * Mini Tripode Araña Pulpo Flexible</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Bolsa Estuche Forro Impermeable Celular Camaras</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>BOLSA ESTUCHE FORRO IMPERMEABLE CELULAR CÁMARAS
+==============================
+MUNDONOVEDAD
+PRODUCTOS INNOVADORES
+==============================
+Para Celulares, CÁMARAS, documentos, llaves
+para sacar fotos)
+medidas: 18x10cm. cerrada (abierta 25×10)
+triple cierre ziploc + velcro
+Elaborado con materiales de alta duración, te permite manipular la pantal
+Contenido:
+1-Forro Protector</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Tripode En Aluminio Para Camara y Celular</t>
+  </si>
+  <si>
+    <t>TRIPODE EN ALUMINIO PARA CAMARA FOTOGRAFICA – ALTURA MAXIMA 102CM – ALTURA MINIMA 35CM
+INCLUYE ESTUCHE (BOLSA) PARA SER LLEVADO Y CARGADO
+Hecho de aluminio ultra ligero de excelente calidad para una experiencia de operación más cómoda y fácil de llevar. Antideslizante, ligero y duradero. Cuenta con dos perillas de control independientes para ajustar con precisión el ángulo de la cabeza del trípode. Incluye Nivel liquido de Burbuja para nivelar sus fotografias de manera perfecta. Es ajustable en 3 alturas (35Cm, 51Cm, 102Cm) para mayor comodidad de sus transporte y utilizacion.
+CARACTERISTICAS PRINCIPALES
+– Material: Aluminio Liviano de Excelente Calidad y Plastico
+– Liviano y Portatil
+– Ajustable en 3 Alturas: 35Cm, 51 Cm, 102Cm
+– Altura Maxima: 102 Cm – 1.02M
+– Capacidad Maxima de Carga: 2 Kilogramos
+– Las patas robustas de 3 secciones están hechas de aluminio y vienen con cerraduras rápidas.
+– Incluye Nivel liquido de Burbuja
+– Ideal para tomar fotografías de viajes o deportes
+– Peso: 380 Gramos
+POR SU COMPRA RECIBIRÁ:
+– Tripode 3110 de Altura Maxima 102Cm
+– Estuche en tela impermeable
+– Caja</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNsJM_aNOKvMcPLNsEgMQ2_yDzLsgGom2mYBl5c6xMs8OEvvxtSnHQTEnrtY4tQDLQFysSpLHSOGovTGg1RbChGae3SSFP5h3GXeKYfAGF2N-TLruveDuZLTJHpN18Dt9RkTLATx-C4Hc57I5cre9Plvw=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Bombillo Lampara Fútbol 40W</t>
+  </si>
+  <si>
+    <t>Características:
+1.Apariencia como UFO Football le da experiencia visual, unidad de corriente constante, no hay luz estroboscópica, inofensivo a los ojos humanos y el cuerpo.
+2.Bajo consumo de energía y super luminiscencia central, protección de sobrecarga, protección contra cortocircuitos, protección contra bajo voltaje
+3.La lámpara se puede ajustar.Fácil de instalar.
+4.En comparación con la iluminación existente, el coste de mantenimiento es menor.
+5.Super brillo y ángulo de haz se puede ajustar: Lámpara de fútbol puede soportar 6000 lúmenes, por lo que es adecuado para grandes zonas de interior, tales como escuelas, hospitales, almacenes, líneas de producción de fábrica, etc.La lámpara tiene un muy amplio ángulo de haz.Ajustable
+6.Instalación rápida y sencilla: sin necesidad de herramientas, fijar la bombilla en el soporte de la lámpara de E27 sin necesidad de instalar las lámparas más grandes, tales como lámparas LED; se conectan directamente al soporte de la lámpara de E27.
+Consumo Energético 40W</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMm6BXM1H4bEbQ7jSSvfAuXTva9nEbx1LiNPdnDAi-EY_hshXFxEcFVymwDbdR4pT2bx36KDtCuQHN2gBu0dxKe9_CzqLmK8cBkqUGfaC231-71yFJh5nEPh60vDu58GXYCRocC6Hs6i8kFsQrEjslpMg=w600-h600-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPNSFHF_4_4eXe1P0YDTV3pXYVyTTVmUZttLJx5mpHjdM06QODaOK7WHahBCFM2cdaKquNZLyzIf1lxIClfq31A7C2ZItUSnPlYEykhB9AH-JyUdWxG35lM47P3h4aU7VzjCmatfGyoaXDw0TusDJmb_w=w607-h543-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Gramera Cocina Digital Capacidad Hasta 10kg</t>
+  </si>
+  <si>
+    <t>35.000</t>
+  </si>
+  <si>
+    <t>MAXIMO 5 UNIDADES POR COMPRA
+CARACTERÍSTICAS:
+FUNCIÓN «TARA»
+PANTALLA DE CRISTAL LIQUIDO DE 15.24MM (0.6″)
+IDEAL PARA LA COCINA
+CAPACIDAD DE 10KG
+FRACCIONAMIENTO DE 1G
+PANTALLA LCD DE 1.6″
+RESTABLECIMIENTO A CERO AUTOMÁTICO
+EQUIPADO CON SENSOR «CALIBRADOR DE TENSIÓN» DE ALTA PRECISIÓN
+APAGADO AUTOMÁTICO
+INDICADOR DE SOBREPESO «EEEE»
+DOS UNIDADES DE MEDIDAS (G/OZ)
+UTILIZA DOS PILAS AA (NO LAS INCLUYE)
+MATERIAL:PLÁSTICO
+CON ESTA BASCULA DIGITAL PODRÁ PESAR TODOS SUS INGREDIENTES DE MANERA RÁPIDA Y PRECISA, LO CUAL NECESITARÁ SI QUIERE ACERTAR EN SUS RECETAS. ESTA EQUIPADA CON UNA GRAN PANTALLA LCD Y SIRVE PARA UN PESO MÁXIMO DE 10KG, APARECIENDO UN MENSAJE DE ERROR SI SE EXCEDE.
+CON LA FUNCIÓN DE PESO TARE PODRÁ DEDUCIR EL PESO DEL RECIPIENTE UTILIZADO O AÑADIR MAS INGREDIENTES PONIENDO PARA CADA UNO EL CONTADOR EN CERO. PODRÁ GUARDARLA CON TOTAL FACILIDAD DESPUÉS DE SU USO GRACIAS A SU REDUCIDO TAMAÑO. UN EXCELENTE AYUDANTE EN LA COCINA.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOgex5SuNLpHrIkZfF92MsFhIF73EPGxXwJdx6sfyJjry_p70SDkEnpGqY0EGnQswexs6XeA4EGzLKxrTN_ZCN8jw8qnrI7ZoJcDZxrtxNwAvZxY-YA_s6C2Jvvj8WqFnEkhTdpimjdoKeeP84gR4c0zw=w600-h470-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOBcqvc9HHKeU9smkCRPduTuVkhuDR6zovGWNBx4N392TMneM_62GprDw3axjun6PnIi5YYVKR0f_RRyvL8oQfH8i3BjazVpDf9lktJLNE8z6zngtf92pMWWtCk4cDJtr6hXCoAiUYR8UoYRzER0jYsTw=w593-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Flawlbss Recargable Portátil Removedor Vello Facial</t>
+  </si>
+  <si>
+    <t>Flawlbss Recargable Portátil Removedor Vello Facial
+– Llegó la Moderna y practica depiladora de bello facial recargable.
+– Luz incluida para ver hasta los vellos más pequeños.
+– Remueve vello facial apta para todo tipo de piel sin dejar enrojecimiento.
+– Remueve el vello instantáneamente sin dolor.
+Contiene:
+– Máquina depiladora
+– Manual de instrucciones
+– Cepillo limpiador
+– Cable usb</t>
+  </si>
+  <si>
+    <t>39.000</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,8 +1696,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>117</v>
@@ -1147,8 +1725,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
@@ -1176,8 +1754,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>119</v>
@@ -1208,8 +1786,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>121</v>
@@ -1240,8 +1818,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>123</v>
@@ -1278,8 +1856,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>127</v>
@@ -1313,8 +1891,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>130</v>
@@ -1351,8 +1929,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>134</v>
@@ -1386,8 +1964,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>137</v>
@@ -1430,8 +2008,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>143</v>
@@ -1630,7 +2208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +2240,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +2275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +2304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1755,7 +2333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1790,7 +2368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1822,76 +2400,711 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{90117452-467A-485C-B610-C6F4271DA73A}"/>
-  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0887E-B958-4ADA-B5B1-441A1E3606B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2F1BF-3240-4929-BA4C-EB6917EC638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="282">
   <si>
     <t>image</t>
   </si>
@@ -1211,6 +1211,21 @@
   </si>
   <si>
     <t>39.000</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPJHa75jloBTDJfai3A8k1UlRGmPeBUdm6HlhPD7fw-F-bkLTXRS9Ryj0zzOCcXhWyvz2muQaHRINOHM5TYyWtgla5NSrzpEzX9zzNEuaAwJ4rYpHiiujs2ILVoK1BmHcBGuZRIatNliwJJc9oED_-r-w=w790-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPkGMqXvqtnpCdLFulOrX7bUca1HFjk6wBReP4jlQjRZw-MX1mC3ZRqnQWLDvbsAOOZdEiughMowNEJ2UQ0Sw7DCEEmeuepzBN0XExntTdu-tltNO65cVXPxaRB67q3k06yGO0QJOQw7yaqqXTcRMBdJw=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNGFn-scYOIaepHI_TQeJoJrpxwYfd8QC3xOrMBcUv9i5_LZP-r5nhsk8sajKfSmQM5UZHdjfSVCoDUxgxOq08zDnGVgr4qteOgc0AQmAchnM1QB4JZF_9xX6SeFjiFoni3TuU-ZTkVdM-zA2fvMinK9Q=w458-h458-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPFTFK5rdqrMn0nWqIDyrlnH2s3pgKk69kyrr1qqzwjPj6GSURwDWPWu-joIjFgOwKK4V4awyFg8H1iNq73fQfhHz-7_1pjnyrK2yvRSp8__cHyjqNLZLBMd1Mgj0FRey0ZQjKjQYyGE4ojf0s0W4pz6Q=w791-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPoSEIGxuj78sglLl24PbuEV2k1goSmJlsHJdmAGFgKclRxcX_MzW81pJhR620iy4ifidSqviec2dzAteExySdAq0S0_NpTw0WMzNbkQv4CsQyI_0mzaF3HAUQ5Pou8JB0dUua18YO2OObcPDZ2LxnHoQ=w1200-h791-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -1628,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2415,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>157</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -2478,7 +2493,7 @@
         <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>173</v>
@@ -2499,10 +2514,10 @@
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>180</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
@@ -2662,7 +2677,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
@@ -2697,7 +2712,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>211</v>
       </c>
@@ -2731,7 +2746,7 @@
         <v>216</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>217</v>
@@ -2752,18 +2767,18 @@
         <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>222</v>
@@ -2784,13 +2799,13 @@
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>226</v>
       </c>
@@ -2822,7 +2837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>238</v>
       </c>
@@ -2889,7 +2904,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>244</v>
       </c>
@@ -2921,12 +2936,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>252</v>
@@ -2947,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>254</v>
       </c>
@@ -2979,12 +2994,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>259</v>
@@ -3005,10 +3020,10 @@
         <v>11</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>261</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>266</v>
       </c>
@@ -3072,7 +3087,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>272</v>
       </c>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\PROYECTO E-PLAZA NO TOCAR\E-Plaza.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2F1BF-3240-4929-BA4C-EB6917EC638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BD498-1EFB-4E22-A2BE-010F35A91F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="283">
   <si>
     <t>image</t>
   </si>
@@ -1226,6 +1226,9 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPoSEIGxuj78sglLl24PbuEV2k1goSmJlsHJdmAGFgKclRxcX_MzW81pJhR620iy4ifidSqviec2dzAteExySdAq0S0_NpTw0WMzNbkQv4CsQyI_0mzaF3HAUQ5Pou8JB0dUua18YO2OObcPDZ2LxnHoQ=w1200-h791-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>service</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1660,7 @@
     <col min="6" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1680,37 +1683,40 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -1733,13 +1739,16 @@
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -1762,13 +1771,16 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -1791,16 +1803,19 @@
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -1823,16 +1838,19 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -1855,22 +1873,25 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -1893,19 +1914,22 @@
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -1931,19 +1955,22 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -1969,16 +1996,19 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>155</v>
       </c>
@@ -2004,25 +2034,28 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -2047,20 +2080,23 @@
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2083,13 +2119,16 @@
         <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2115,19 +2154,22 @@
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2150,13 +2192,16 @@
         <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2178,17 +2223,20 @@
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,16 +2262,19 @@
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,13 +2300,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2281,16 +2335,19 @@
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,10 +2373,13 @@
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2342,13 +2402,16 @@
         <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2374,16 +2437,19 @@
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2409,13 +2475,16 @@
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>157</v>
       </c>
@@ -2441,16 +2510,19 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -2473,22 +2545,25 @@
         <v>24</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
@@ -2514,10 +2589,13 @@
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2543,10 +2621,13 @@
         <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>180</v>
       </c>
@@ -2569,13 +2650,16 @@
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>184</v>
       </c>
@@ -2601,16 +2685,19 @@
         <v>12</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>190</v>
       </c>
@@ -2636,16 +2723,19 @@
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
@@ -2668,16 +2758,19 @@
         <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
@@ -2703,16 +2796,19 @@
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>211</v>
       </c>
@@ -2735,13 +2831,16 @@
         <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -2764,16 +2863,19 @@
         <v>24</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>221</v>
       </c>
@@ -2799,13 +2901,16 @@
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>226</v>
       </c>
@@ -2831,13 +2936,16 @@
         <v>12</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
@@ -2860,19 +2968,22 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>238</v>
       </c>
@@ -2895,16 +3006,19 @@
         <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>244</v>
       </c>
@@ -2930,13 +3044,16 @@
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
@@ -2959,13 +3076,16 @@
         <v>24</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>254</v>
       </c>
@@ -2991,10 +3111,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>258</v>
       </c>
@@ -3017,13 +3140,16 @@
         <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>261</v>
       </c>
@@ -3046,16 +3172,19 @@
         <v>24</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>266</v>
       </c>
@@ -3078,16 +3207,19 @@
         <v>24</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>272</v>
       </c>
@@ -3110,16 +3242,22 @@
         <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{A534C2E1-5EE2-4E60-8767-6A9D2AAE98CA}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="10" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/666c2fc048b9b682/Documentos/GitHub/E-Plaza.com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06BD498-1EFB-4E22-A2BE-010F35A91F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C06BD498-1EFB-4E22-A2BE-010F35A91F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4185C2-DB9E-45B7-9799-AC332849D412}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -1646,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3172,7 @@
         <v>24</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>12</v>
@@ -3207,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>12</v>
@@ -3242,7 +3242,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>12</v>
